--- a/data/dollar.xlsx
+++ b/data/dollar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4725" uniqueCount="2648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="2652">
   <si>
     <t xml:space="preserve">Dólar | Dólar</t>
   </si>
@@ -7965,6 +7965,18 @@
   </si>
   <si>
     <t xml:space="preserve">20/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/06/2025</t>
   </si>
 </sst>
 </file>
@@ -8111,7 +8123,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2364"/>
+  <dimension ref="A1:J2368"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -27039,6 +27051,38 @@
       </c>
       <c r="B2364" s="6" t="s">
         <v>1361</v>
+      </c>
+    </row>
+    <row r="2365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2365" s="6" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B2365" s="6" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="2366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2366" s="6" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B2366" s="6" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="2367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2367" s="6" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B2367" s="6" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="2368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2368" s="6" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B2368" s="6" t="s">
+        <v>1241</v>
       </c>
     </row>
   </sheetData>

--- a/data/dollar.xlsx
+++ b/data/dollar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="2652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="2657">
   <si>
     <t xml:space="preserve">Dólar | Dólar</t>
   </si>
@@ -7977,6 +7977,21 @@
   </si>
   <si>
     <t xml:space="preserve">26/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/07/2025</t>
   </si>
 </sst>
 </file>
@@ -8123,7 +8138,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2368"/>
+  <dimension ref="A1:J2373"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -27083,6 +27098,46 @@
       </c>
       <c r="B2368" s="6" t="s">
         <v>1241</v>
+      </c>
+    </row>
+    <row r="2369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2369" s="6" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B2369" s="6" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="2370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2370" s="6" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B2370" s="6" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="2371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2371" s="6" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B2371" s="6" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="2372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2372" s="6" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B2372" s="6" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="2373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2373" s="6" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B2373" s="6" t="s">
+        <v>1239</v>
       </c>
     </row>
   </sheetData>
